--- a/2-2020.xlsx
+++ b/2-2020.xlsx
@@ -722,6 +722,30 @@
       <c r="B32" t="s">
         <v>13</v>
       </c>
+      <c r="C32">
+        <v>200.0</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>200.0</v>
+      </c>
+      <c r="H32">
+        <v>5.5</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="33" spans="1:26">
       <c r="B33" t="s">
